--- a/differences_6_0.95.xlsx
+++ b/differences_6_0.95.xlsx
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.172</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1900000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0.06000000000000005</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1729999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.173</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09500000000000003</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01400000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.01800000000000002</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1759999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.06599999999999995</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.118</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.05700000000000005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.166</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.08199999999999996</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-0.01100000000000001</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.131</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.07300000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.121</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.04299999999999998</v>
+        <v>0.08900000000000002</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.07799999999999996</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.005000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.05899999999999994</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.16</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.03899999999999992</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1210000000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0.07899999999999996</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1119,16 +1119,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.02200000000000002</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.06799999999999995</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03600000000000003</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04200000000000004</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1165,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.06199999999999994</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.177</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.119</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.08199999999999996</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.115</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.08099999999999996</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01899999999999996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.129</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04500000000000004</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1110000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08200000000000002</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1392,16 +1392,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.05099999999999999</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.05100000000000005</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.166</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.07499999999999996</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.14</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.006000000000000005</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1490,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.05500000000000005</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.112</v>
+        <v>0.05500000000000005</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.06899999999999995</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.104</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0.105</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.05199999999999994</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1677,16 +1677,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.108</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.005000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08299999999999996</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1726,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.05299999999999999</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.08099999999999996</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07299999999999995</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05699999999999994</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.07899999999999996</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.01800000000000002</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.207</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.09799999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1993,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.08099999999999996</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2045,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.08900000000000008</v>
+        <v>0.126</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2085,25 +2085,25 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.06499999999999995</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.09499999999999997</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01500000000000001</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.09599999999999997</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07700000000000007</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.05799999999999994</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.05399999999999999</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08400000000000002</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2177,16 +2177,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07700000000000007</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2229,16 +2229,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.08599999999999997</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.007000000000000006</v>
+        <v>0.06699999999999995</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.07600000000000007</v>
+        <v>0.12</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0.08799999999999997</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.07899999999999996</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.111</v>
+        <v>0.1040000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01599999999999996</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07499999999999996</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.157</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.101</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.107</v>
+        <v>0.09400000000000008</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.05099999999999999</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.124</v>
+        <v>0.108</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-0.01100000000000001</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.119</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2677,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.105</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>-0.08500000000000002</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.08799999999999997</v>
+        <v>0.156</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2775,25 +2775,25 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07599999999999996</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.09299999999999997</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.06199999999999994</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.114</v>
+        <v>0.102</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08899999999999997</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.136</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.03300000000000003</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>0.09699999999999998</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08599999999999997</v>
+        <v>0.09199999999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.06199999999999994</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3020,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3051,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>-0.06599999999999995</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.117</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3091,19 +3091,19 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-0.05800000000000005</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>-0.05999999999999994</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.136</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3149,16 +3149,16 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.03999999999999998</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.112</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.03300000000000003</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.08799999999999997</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3229,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09699999999999998</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07599999999999996</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.208</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="I62" t="n">
-        <v>0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.008999999999999952</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.08899999999999997</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.06600000000000006</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3373,25 +3373,25 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-0.08299999999999996</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.08699999999999997</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.03800000000000003</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3425,10 +3425,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.162</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.117</v>
+        <v>0.127</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.09000000000000008</v>
+        <v>0.112</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3563,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.02599999999999997</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.08199999999999996</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.04399999999999998</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08899999999999997</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08399999999999996</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -3689,19 +3689,19 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-0.1080000000000001</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>-0.08199999999999996</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.02699999999999991</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -3738,16 +3738,16 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08399999999999996</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.09799999999999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3781,22 +3781,22 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07599999999999996</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.07499999999999996</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>0.06600000000000006</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.133</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.07500000000000007</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3919,19 +3919,19 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.05800000000000005</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="E76" t="n">
-        <v>0.04100000000000004</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3980,19 +3980,19 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1000000000000001</v>
+        <v>0.08099999999999996</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.04900000000000004</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4060,22 +4060,22 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08199999999999996</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.04100000000000004</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.04400000000000004</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.05800000000000005</v>
+        <v>0.142</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.127</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4216,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="K82" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.06699999999999995</v>
+        <v>0.1140000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.148</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.118</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.09399999999999997</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08699999999999997</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -4446,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.182</v>
       </c>
       <c r="K87" t="n">
-        <v>0.09400000000000003</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -4477,13 +4477,13 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.03300000000000003</v>
+        <v>0.168</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.03199999999999992</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4569,16 +4569,16 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.05999999999999994</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.04299999999999998</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.04800000000000004</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -4661,19 +4661,19 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.08199999999999996</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2040000000000001</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>0.03200000000000003</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.2060000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.07500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4747,19 +4747,19 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.07099999999999995</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4799,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.06699999999999995</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.171</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4836,13 +4836,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03599999999999992</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.02800000000000002</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -4860,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07100000000000001</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -4894,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>0.04100000000000004</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.1970000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07199999999999995</v>
+        <v>0.121</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.05199999999999999</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -5029,19 +5029,19 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.03299999999999992</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.002000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.02200000000000002</v>
+        <v>-0.09399999999999997</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
